--- a/Enrollproject/QianAn.xlsx
+++ b/Enrollproject/QianAn.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
   <si>
     <t>姓名</t>
   </si>
@@ -39,51 +39,6 @@
   </si>
   <si>
     <t>午餐</t>
-  </si>
-  <si>
-    <t>zhou kk</t>
-  </si>
-  <si>
-    <t>17040502032</t>
-  </si>
-  <si>
-    <t>管联</t>
-  </si>
-  <si>
-    <t>迁安</t>
-  </si>
-  <si>
-    <t>否</t>
-  </si>
-  <si>
-    <t>2018-11-10 01:16:13</t>
-  </si>
-  <si>
-    <t>zhou kk33</t>
-  </si>
-  <si>
-    <t>是</t>
-  </si>
-  <si>
-    <t>2018-11-10 01:23:41</t>
-  </si>
-  <si>
-    <t>zhou kk333</t>
-  </si>
-  <si>
-    <t>2018-11-10 01:24:35</t>
-  </si>
-  <si>
-    <t>zhou kk3333365</t>
-  </si>
-  <si>
-    <t>2018-11-10 01:31:17</t>
-  </si>
-  <si>
-    <t>zhou kk33333655</t>
-  </si>
-  <si>
-    <t>2018-11-10 01:36:15</t>
   </si>
 </sst>
 </file>
@@ -423,7 +378,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +396,7 @@
     <col customWidth="1" max="8" min="8" width="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -462,137 +417,6 @@
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="n"/>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
